--- a/Vanilla Wainwright Tracker/Expectations for project.xlsx
+++ b/Vanilla Wainwright Tracker/Expectations for project.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aoretaillimited-my.sharepoint.com/personal/joshua_miller_ao_com/Documents/Lister/Coding/Wainwright tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{A7392115-FB4A-4054-8463-96A9C8454C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{01535FBD-4F19-4320-A007-DA81690AEA3C}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{A7392115-FB4A-4054-8463-96A9C8454C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB598435-0641-4FDC-9B0B-BEF7BC41E998}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1227ECE0-9E8B-4379-93EE-1630EAEB72E6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1227ECE0-9E8B-4379-93EE-1630EAEB72E6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ideas" sheetId="1" r:id="rId1"/>
+    <sheet name="Whats remaining" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Home page</t>
   </si>
@@ -89,6 +89,45 @@
   </si>
   <si>
     <t>Populate stars with difficulty</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Image gallery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkbox </t>
+  </si>
+  <si>
+    <t>Filtering on region and completion status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDP page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">filtering on 'null' should bring back everything </t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>removing characters doesn't run the search functionality</t>
+  </si>
+  <si>
+    <t>set active filter issue when scrolling</t>
+  </si>
+  <si>
+    <t>update the object on data input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">updating times when other times are input e.g. Start time and ascent duration = summit time </t>
+  </si>
+  <si>
+    <t>mark as complete actually marks the object as complete</t>
+  </si>
+  <si>
+    <t>take the correct image and name through</t>
   </si>
 </sst>
 </file>
@@ -112,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +170,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -144,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,6 +213,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA86CBE-FB45-418B-8414-1A7264BCFE90}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -634,4 +684,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="204" verticalDpi="196" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190BB83D-9970-4F1F-9E9E-F0C90F1F11A7}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="11"/>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="204" verticalDpi="196" r:id="rId1"/>
+</worksheet>
 </file>